--- a/iselUssSyncV2/OutputWSL/20220427_1419_D50L474W90Q25U0.36H87G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220427_1419_D50L474W90Q25U0.36H87G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>88.264523809523823</v>
+        <v>88.265454576544769</v>
       </c>
       <c r="F2" s="0">
-        <v>87.980119047619056</v>
+        <v>87.981049814640031</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>88.601857707509893</v>
+        <v>88.604132915783367</v>
       </c>
       <c r="F3" s="0">
-        <v>90.18604743083003</v>
+        <v>90.188322639103532</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>88.036587301587275</v>
+        <v>88.039338235227049</v>
       </c>
       <c r="F4" s="0">
-        <v>91.75853174603175</v>
+        <v>91.761282679671496</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>87.237768924302799</v>
+        <v>87.240575014506717</v>
       </c>
       <c r="F5" s="0">
-        <v>92.43290836653388</v>
+        <v>92.435714456737813</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>86.043769841269864</v>
+        <v>86.046624193467508</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>83.972182539682549</v>
+        <v>83.975078259303345</v>
       </c>
       <c r="F7" s="0">
-        <v>92.95460317460315</v>
+        <v>92.957498894223988</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>79.864462151394434</v>
+        <v>79.867392343867834</v>
       </c>
       <c r="F8" s="0">
-        <v>90.208565737051785</v>
+        <v>90.211495929525228</v>
       </c>
     </row>
     <row r="9">
@@ -260,7 +260,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>77.185019920318751</v>
+        <v>77.18796197145349</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -278,7 +278,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>74.332988047808783</v>
+        <v>74.33594085447352</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -296,7 +296,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>70.900357142857104</v>
+        <v>70.903319601920643</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -314,7 +314,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>69.01579365079364</v>
+        <v>69.018760522382266</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -332,7 +332,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>66.945816733067716</v>
+        <v>66.948787741398661</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -350,7 +350,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>64.668015873015861</v>
+        <v>64.670990742306302</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -368,10 +368,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>63.033585657370516</v>
+        <v>63.036564111837635</v>
       </c>
       <c r="F15" s="0">
-        <v>21.715737051792829</v>
+        <v>21.718715506259944</v>
       </c>
     </row>
     <row r="16">
@@ -388,10 +388,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>59.743745019920318</v>
+        <v>59.746729817392307</v>
       </c>
       <c r="F16" s="0">
-        <v>22.593027888446215</v>
+        <v>22.596012685918208</v>
       </c>
     </row>
     <row r="17">
@@ -408,10 +408,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>55.10199203187252</v>
+        <v>55.10498206921811</v>
       </c>
       <c r="F17" s="0">
-        <v>22.58370517928287</v>
+        <v>22.586695216628463</v>
       </c>
     </row>
     <row r="18">
@@ -428,10 +428,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>52.302896825396815</v>
+        <v>52.305890999484738</v>
       </c>
       <c r="F18" s="0">
-        <v>22.549761904761901</v>
+        <v>22.552756078849807</v>
       </c>
     </row>
     <row r="19">
@@ -448,10 +448,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>47.14569721115538</v>
+        <v>47.148696349334067</v>
       </c>
       <c r="F19" s="0">
-        <v>24.145139442231073</v>
+        <v>24.148138580409757</v>
       </c>
     </row>
     <row r="20">
@@ -468,10 +468,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>41.416785714285709</v>
+        <v>41.41978485246441</v>
       </c>
       <c r="F20" s="0">
-        <v>27.706746031746032</v>
+        <v>27.709745169924716</v>
       </c>
     </row>
     <row r="21">
@@ -488,10 +488,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>36.196706349206359</v>
+        <v>36.199698592814507</v>
       </c>
       <c r="F21" s="0">
-        <v>55.304642857142845</v>
+        <v>55.307635100751028</v>
       </c>
     </row>
     <row r="22">
@@ -508,10 +508,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>32.538167330677311</v>
+        <v>32.54114578514438</v>
       </c>
       <c r="F22" s="0">
-        <v>60.470916334661361</v>
+        <v>60.473894789128451</v>
       </c>
     </row>
     <row r="23">
@@ -528,10 +528,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>29.980753968253957</v>
+        <v>29.983711739009486</v>
       </c>
       <c r="F23" s="0">
-        <v>52.580158730158736</v>
+        <v>52.583116500914265</v>
       </c>
     </row>
     <row r="24">
@@ -548,10 +548,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>28.267261904761899</v>
+        <v>28.270157624382712</v>
       </c>
       <c r="F24" s="0">
-        <v>47.265753968253975</v>
+        <v>47.268649687874763</v>
       </c>
     </row>
     <row r="25">
@@ -568,10 +568,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>35.988964143426301</v>
+        <v>35.991770233630248</v>
       </c>
       <c r="F25" s="0">
-        <v>48.668764940239036</v>
+        <v>48.671571030443005</v>
       </c>
     </row>
     <row r="26">
@@ -588,10 +588,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>59.521115537848615</v>
+        <v>59.523804420353642</v>
       </c>
       <c r="F26" s="0">
-        <v>45.707569721115526</v>
+        <v>45.710258603620552</v>
       </c>
     </row>
     <row r="27">
@@ -608,10 +608,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>46.910714285714285</v>
+        <v>46.913258382238283</v>
       </c>
       <c r="F27" s="0">
-        <v>50.837460317460319</v>
+        <v>50.840004413984317</v>
       </c>
     </row>
     <row r="28">
@@ -628,10 +628,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>54.300756972111543</v>
+        <v>54.303128704372405</v>
       </c>
       <c r="F28" s="0">
-        <v>55.55482071713147</v>
+        <v>55.557192449392332</v>
       </c>
     </row>
     <row r="29">
@@ -648,10 +648,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>63.957857142857144</v>
+        <v>63.960028932572733</v>
       </c>
       <c r="F29" s="0">
-        <v>52.899603174603186</v>
+        <v>52.901774964318761</v>
       </c>
     </row>
     <row r="30">
@@ -668,10 +668,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>59.720952380952383</v>
+        <v>59.722641550731183</v>
       </c>
       <c r="F30" s="0">
-        <v>55.035396825396823</v>
+        <v>55.037085995175609</v>
       </c>
     </row>
   </sheetData>
